--- a/mbs-perturbation/greedy/welm/nearmiss/greedy_welm_rbf_nearmiss_results.xlsx
+++ b/mbs-perturbation/greedy/welm/nearmiss/greedy_welm_rbf_nearmiss_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.3409090909090909</v>
       </c>
     </row>
   </sheetData>
